--- a/data/liste-equipe.xlsx
+++ b/data/liste-equipe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremylavalade/Downloads/Site Web V2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremylavalade/Downloads/Site Web V2.1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29A9E9B-028E-B240-BA7E-748B35060E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5E8F9C-A931-1043-9A92-A110EB079C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{786A410D-58C9-CF4E-A296-84671034DD88}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="206">
   <si>
     <t>Prénom</t>
   </si>
@@ -525,27 +525,6 @@
   </si>
   <si>
     <t>camille.malet@harmoniedudoutefilm.fr</t>
-  </si>
-  <si>
-    <t>realisateurs</t>
-  </si>
-  <si>
-    <t>Jérémy</t>
-  </si>
-  <si>
-    <t>Réalisateur &amp; Producteur</t>
-  </si>
-  <si>
-    <t>jeremy.lavalade@harmoniedudoutefilm.fr</t>
-  </si>
-  <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Réalisateur</t>
-  </si>
-  <si>
-    <t>pablo.freitas@harmoniedudoutefilm.fr</t>
   </si>
   <si>
     <t>Zina</t>
@@ -1053,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1D4DD-F58E-894F-94D4-E9D82FF3EB6B}">
-  <dimension ref="B2:I227"/>
+  <dimension ref="B2:I225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1136,82 +1115,82 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>166</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>163</v>
       </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E8" s="1" t="s">
         <v>173</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -1219,79 +1198,79 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>182</v>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -1299,19 +1278,19 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -1319,19 +1298,19 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
         <v>188</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -1339,19 +1318,19 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G15" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -1359,59 +1338,59 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F16" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
@@ -1419,19 +1398,19 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -1439,19 +1418,19 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -1459,19 +1438,19 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -1479,19 +1458,19 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -1499,19 +1478,19 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -1519,19 +1498,19 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
@@ -1539,19 +1518,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -1559,59 +1538,59 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
@@ -1619,19 +1598,19 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
@@ -1639,19 +1618,19 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="D30" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
@@ -1659,19 +1638,19 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -1679,19 +1658,19 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F32" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G32" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
@@ -1699,19 +1678,19 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F33" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G33" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
@@ -1719,19 +1698,19 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
@@ -1739,19 +1718,19 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
@@ -1759,99 +1738,99 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D36" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F36" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G36" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
@@ -1859,19 +1838,19 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
@@ -1879,19 +1858,19 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
@@ -1899,19 +1878,19 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D43" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E43" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G43" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
@@ -1919,59 +1898,59 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="F45" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F46" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G46" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
@@ -1979,19 +1958,19 @@
         <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="F47" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="G47" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
@@ -1999,59 +1978,59 @@
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E48" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F48" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G48" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F49" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G49" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="F50" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G50" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
@@ -2059,39 +2038,39 @@
         <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D51" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F51" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G51" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="F52" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="G52" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
@@ -2099,59 +2078,59 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="E53" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="G53" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D54" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E54" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F54" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G54" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="G55" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
@@ -2159,19 +2138,19 @@
         <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F56" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G56" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
@@ -2179,119 +2158,119 @@
         <v>157</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E57" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F57" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G57" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="E58" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F58" t="s">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>188</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="F59" t="s">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="G59" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="D60" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="F60" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="G60" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>153</v>
+      <c r="B61">
+        <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" t="s">
-        <v>67</v>
+        <v>181</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>28</v>
+      <c r="B62">
+        <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E62" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F62" t="s">
-        <v>188</v>
-      </c>
-      <c r="G62" t="s">
-        <v>188</v>
+        <v>181</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
@@ -2299,16 +2278,16 @@
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E63" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F63" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2319,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D64" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E64" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F64" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2339,16 +2318,16 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D65" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E65" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F65" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2359,16 +2338,16 @@
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D66" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E66" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F66" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2379,16 +2358,16 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E67" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F67" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2399,16 +2378,16 @@
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D68" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E68" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F68" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2419,16 +2398,16 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D69" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E69" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F69" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2439,16 +2418,16 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D70" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E70" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F70" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2459,16 +2438,16 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E71" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F71" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2479,16 +2458,16 @@
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E72" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F72" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2499,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E73" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F73" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2519,16 +2498,16 @@
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D74" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E74" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F74" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2539,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E75" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F75" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2559,16 +2538,16 @@
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D76" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F76" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2579,16 +2558,16 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D77" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E77" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F77" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2599,16 +2578,16 @@
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E78" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F78" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2619,16 +2598,16 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E79" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F79" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2639,16 +2618,16 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D80" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E80" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F80" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2659,16 +2638,16 @@
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D81" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E81" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F81" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2679,16 +2658,16 @@
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D82" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E82" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F82" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2699,16 +2678,16 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D83" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F83" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2719,16 +2698,16 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D84" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E84" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F84" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2739,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D85" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E85" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F85" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2759,16 +2738,16 @@
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D86" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E86" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F86" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2779,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E87" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F87" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2799,16 +2778,16 @@
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D88" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E88" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F88" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -2819,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D89" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E89" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F89" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -2839,16 +2818,16 @@
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E90" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F90" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -2859,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E91" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F91" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2879,16 +2858,16 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D92" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E92" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -2899,16 +2878,16 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E93" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -2919,16 +2898,16 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D94" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E94" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -2939,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D95" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E95" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -2959,16 +2938,16 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E96" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -2979,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D97" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E97" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -2999,16 +2978,16 @@
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D98" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E98" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3019,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D99" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E99" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3039,16 +3018,16 @@
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D100" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E100" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3059,16 +3038,16 @@
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D101" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E101" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3079,16 +3058,16 @@
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D102" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E102" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F102" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3099,16 +3078,16 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D103" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E103" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F103" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3119,16 +3098,16 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D104" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E104" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F104" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3139,16 +3118,16 @@
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D105" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E105" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F105" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3159,16 +3138,16 @@
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D106" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E106" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F106" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3179,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D107" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E107" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F107" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3199,16 +3178,16 @@
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D108" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E108" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F108" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3219,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D109" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E109" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F109" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3239,16 +3218,16 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D110" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E110" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F110" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3259,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D111" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E111" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F111" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3279,16 +3258,16 @@
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D112" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E112" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F112" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3299,16 +3278,16 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D113" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E113" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F113" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3319,16 +3298,16 @@
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D114" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E114" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F114" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3339,16 +3318,16 @@
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D115" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E115" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F115" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3359,16 +3338,16 @@
         <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D116" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E116" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F116" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3379,16 +3358,16 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D117" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E117" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F117" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3399,16 +3378,16 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D118" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E118" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F118" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3419,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D119" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E119" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F119" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3439,16 +3418,16 @@
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D120" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E120" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F120" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3459,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D121" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E121" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F121" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3479,16 +3458,16 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D122" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E122" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F122" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -3499,16 +3478,16 @@
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D123" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E123" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F123" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3519,16 +3498,16 @@
         <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D124" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E124" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F124" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -3539,16 +3518,16 @@
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D125" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E125" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F125" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -3559,16 +3538,16 @@
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D126" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E126" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F126" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -3579,16 +3558,16 @@
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D127" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E127" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F127" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -3599,16 +3578,16 @@
         <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D128" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E128" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F128" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -3619,16 +3598,16 @@
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D129" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E129" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F129" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -3639,16 +3618,16 @@
         <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D130" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E130" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F130" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -3659,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D131" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E131" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F131" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -3679,16 +3658,16 @@
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D132" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E132" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F132" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -3699,16 +3678,16 @@
         <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D133" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E133" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F133" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -3719,16 +3698,16 @@
         <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D134" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E134" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F134" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -3739,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D135" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E135" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F135" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -3759,16 +3738,16 @@
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D136" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E136" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F136" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -3779,16 +3758,16 @@
         <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D137" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E137" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F137" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -3799,16 +3778,16 @@
         <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D138" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E138" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F138" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -3819,16 +3798,16 @@
         <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D139" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E139" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F139" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -3839,16 +3818,16 @@
         <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D140" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E140" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F140" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -3859,16 +3838,16 @@
         <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D141" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E141" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F141" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -3879,16 +3858,16 @@
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D142" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E142" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F142" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -3899,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D143" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E143" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F143" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -3919,16 +3898,16 @@
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D144" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E144" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F144" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -3939,16 +3918,16 @@
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D145" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E145" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F145" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -3959,16 +3938,16 @@
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D146" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E146" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F146" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -3979,16 +3958,16 @@
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D147" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E147" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F147" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -3999,16 +3978,16 @@
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D148" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E148" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F148" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -4019,16 +3998,16 @@
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D149" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E149" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F149" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -4039,16 +4018,16 @@
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D150" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E150" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F150" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -4059,16 +4038,16 @@
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D151" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E151" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F151" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -4079,16 +4058,16 @@
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D152" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E152" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F152" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -4099,16 +4078,16 @@
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D153" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E153" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F153" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -4119,16 +4098,16 @@
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D154" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E154" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F154" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -4139,16 +4118,16 @@
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D155" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E155" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F155" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -4159,16 +4138,16 @@
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D156" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E156" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F156" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -4179,16 +4158,16 @@
         <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D157" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E157" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F157" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -4199,16 +4178,16 @@
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D158" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E158" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F158" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -4219,16 +4198,16 @@
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D159" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E159" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F159" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -4239,16 +4218,16 @@
         <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D160" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E160" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F160" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -4259,16 +4238,16 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D161" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E161" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F161" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -4279,16 +4258,16 @@
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D162" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E162" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F162" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -4299,16 +4278,16 @@
         <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D163" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E163" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F163" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -4319,16 +4298,16 @@
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D164" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E164" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F164" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -4339,16 +4318,16 @@
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D165" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E165" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F165" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -4359,16 +4338,16 @@
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D166" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E166" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F166" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -4379,16 +4358,16 @@
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D167" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E167" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F167" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -4399,16 +4378,16 @@
         <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D168" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E168" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F168" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -4419,16 +4398,16 @@
         <v>0</v>
       </c>
       <c r="C169" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D169" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E169" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F169" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -4439,16 +4418,16 @@
         <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D170" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E170" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F170" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -4459,16 +4438,16 @@
         <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D171" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E171" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F171" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -4479,16 +4458,16 @@
         <v>0</v>
       </c>
       <c r="C172" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D172" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E172" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F172" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -4499,16 +4478,16 @@
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D173" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E173" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F173" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -4519,16 +4498,16 @@
         <v>0</v>
       </c>
       <c r="C174" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D174" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E174" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F174" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -4539,16 +4518,16 @@
         <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D175" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E175" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F175" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -4559,16 +4538,16 @@
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D176" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E176" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F176" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -4579,16 +4558,16 @@
         <v>0</v>
       </c>
       <c r="C177" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D177" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E177" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F177" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -4599,16 +4578,16 @@
         <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D178" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E178" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F178" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -4619,16 +4598,16 @@
         <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D179" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E179" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F179" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -4639,16 +4618,16 @@
         <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D180" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F180" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -4659,16 +4638,16 @@
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D181" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E181" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F181" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -4679,16 +4658,16 @@
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D182" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F182" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -4699,16 +4678,16 @@
         <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D183" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E183" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F183" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -4719,16 +4698,16 @@
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D184" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E184" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F184" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -4739,16 +4718,16 @@
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D185" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E185" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F185" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -4759,16 +4738,16 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D186" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E186" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F186" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -4779,16 +4758,16 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D187" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E187" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F187" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -4799,16 +4778,16 @@
         <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D188" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E188" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F188" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -4819,16 +4798,16 @@
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D189" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E189" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F189" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -4839,16 +4818,16 @@
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D190" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E190" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F190" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -4859,16 +4838,16 @@
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D191" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E191" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F191" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -4879,16 +4858,16 @@
         <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D192" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E192" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F192" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -4899,16 +4878,16 @@
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D193" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E193" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F193" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -4919,16 +4898,16 @@
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D194" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E194" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F194" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -4939,16 +4918,16 @@
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D195" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E195" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F195" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -4959,16 +4938,16 @@
         <v>0</v>
       </c>
       <c r="C196" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D196" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E196" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F196" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -4979,16 +4958,16 @@
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D197" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E197" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F197" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -4999,16 +4978,16 @@
         <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D198" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E198" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F198" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5019,16 +4998,16 @@
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D199" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E199" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F199" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -5039,16 +5018,16 @@
         <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D200" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E200" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F200" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -5059,16 +5038,16 @@
         <v>0</v>
       </c>
       <c r="C201" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D201" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E201" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F201" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -5079,16 +5058,16 @@
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D202" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E202" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F202" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -5099,16 +5078,16 @@
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D203" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E203" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F203" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -5119,16 +5098,16 @@
         <v>0</v>
       </c>
       <c r="C204" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D204" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E204" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F204" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -5139,16 +5118,16 @@
         <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D205" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E205" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F205" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -5159,16 +5138,16 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D206" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E206" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F206" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -5179,16 +5158,16 @@
         <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D207" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E207" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F207" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -5199,16 +5178,16 @@
         <v>0</v>
       </c>
       <c r="C208" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D208" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E208" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F208" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -5219,16 +5198,16 @@
         <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D209" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E209" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F209" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -5239,16 +5218,16 @@
         <v>0</v>
       </c>
       <c r="C210" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D210" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E210" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F210" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -5259,16 +5238,16 @@
         <v>0</v>
       </c>
       <c r="C211" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D211" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E211" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F211" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -5279,16 +5258,16 @@
         <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D212" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E212" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F212" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -5298,17 +5277,17 @@
       <c r="B213">
         <v>0</v>
       </c>
-      <c r="C213" t="s">
-        <v>188</v>
-      </c>
-      <c r="D213" t="s">
-        <v>188</v>
-      </c>
-      <c r="E213" t="s">
-        <v>188</v>
-      </c>
-      <c r="F213" t="s">
-        <v>188</v>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -5318,60 +5297,60 @@
       <c r="B214">
         <v>0</v>
       </c>
-      <c r="C214" t="s">
-        <v>188</v>
-      </c>
-      <c r="D214" t="s">
-        <v>188</v>
-      </c>
-      <c r="E214" t="s">
-        <v>188</v>
-      </c>
-      <c r="F214" t="s">
-        <v>188</v>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B215">
-        <v>0</v>
-      </c>
-      <c r="C215">
-        <v>0</v>
-      </c>
-      <c r="D215">
-        <v>0</v>
-      </c>
-      <c r="E215">
-        <v>0</v>
-      </c>
-      <c r="F215">
-        <v>0</v>
-      </c>
-      <c r="G215">
-        <v>0</v>
+      <c r="B215" t="s">
+        <v>30</v>
+      </c>
+      <c r="C215" t="s">
+        <v>105</v>
+      </c>
+      <c r="D215" t="s">
+        <v>106</v>
+      </c>
+      <c r="E215" t="s">
+        <v>107</v>
+      </c>
+      <c r="F215" t="s">
+        <v>133</v>
+      </c>
+      <c r="G215" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B216">
-        <v>0</v>
-      </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-      <c r="D216">
-        <v>0</v>
-      </c>
-      <c r="E216">
-        <v>0</v>
-      </c>
-      <c r="F216">
-        <v>0</v>
-      </c>
-      <c r="G216">
-        <v>0</v>
+      <c r="B216" t="s">
+        <v>30</v>
+      </c>
+      <c r="C216" t="s">
+        <v>108</v>
+      </c>
+      <c r="D216" t="s">
+        <v>109</v>
+      </c>
+      <c r="E216" t="s">
+        <v>110</v>
+      </c>
+      <c r="F216" t="s">
+        <v>135</v>
+      </c>
+      <c r="G216" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.2">
@@ -5379,19 +5358,19 @@
         <v>30</v>
       </c>
       <c r="C217" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D217" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E217" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F217" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G217" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.2">
@@ -5399,19 +5378,19 @@
         <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D218" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E218" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F218" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G218" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.2">
@@ -5419,19 +5398,19 @@
         <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D219" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="E219" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F219" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G219" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.2">
@@ -5439,19 +5418,19 @@
         <v>30</v>
       </c>
       <c r="C220" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D220" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E220" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F220" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G220" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.2">
@@ -5459,19 +5438,19 @@
         <v>30</v>
       </c>
       <c r="C221" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D221" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="E221" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F221" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G221" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.2">
@@ -5479,19 +5458,19 @@
         <v>30</v>
       </c>
       <c r="C222" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D222" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E222" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F222" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G222" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.2">
@@ -5499,19 +5478,19 @@
         <v>30</v>
       </c>
       <c r="C223" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D223" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E223" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F223" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G223" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.2">
@@ -5519,19 +5498,19 @@
         <v>30</v>
       </c>
       <c r="C224" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D224" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E224" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F224" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G224" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.2">
@@ -5539,58 +5518,18 @@
         <v>30</v>
       </c>
       <c r="C225" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="D225" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="E225" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="F225" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G225" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B226" t="s">
-        <v>30</v>
-      </c>
-      <c r="C226" t="s">
-        <v>130</v>
-      </c>
-      <c r="D226" t="s">
-        <v>131</v>
-      </c>
-      <c r="E226" t="s">
-        <v>132</v>
-      </c>
-      <c r="F226" t="s">
-        <v>151</v>
-      </c>
-      <c r="G226" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B227" t="s">
-        <v>30</v>
-      </c>
-      <c r="C227" t="s">
-        <v>158</v>
-      </c>
-      <c r="D227" t="s">
-        <v>159</v>
-      </c>
-      <c r="E227" t="s">
-        <v>160</v>
-      </c>
-      <c r="F227" t="s">
-        <v>161</v>
-      </c>
-      <c r="G227" t="s">
         <v>162</v>
       </c>
     </row>
